--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50F081-99F9-49C4-8D3C-1CCECA7B3AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993DB47-BD35-40E6-8C15-413C0E20015F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="282">
   <si>
     <t>type</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>civ_oncho_ia_202309_1_site</t>
+  </si>
+  <si>
+    <t>M.BORLA DIOULASSO</t>
   </si>
 </sst>
 </file>
@@ -2028,8 +2031,8 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141:XFD143"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3202,13 +3205,13 @@
         <v>42</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>123</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3888,7 +3891,7 @@
         <v>106</v>
       </c>
       <c r="G146" s="26" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4256,7 +4259,7 @@
         <v>224</v>
       </c>
       <c r="G172" s="26" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4792,7 +4795,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="26" customFormat="1" ht="31.5">
+    <row r="3" spans="1:24" s="26" customFormat="1" ht="30">
       <c r="A3" s="15" t="s">
         <v>116</v>
       </c>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DB91F3-D4CE-4937-9BE8-EDD3714A9EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297604F8-A402-4134-8493-76B0DD47CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="272">
   <si>
     <t>type</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>select_one annee</t>
+  </si>
+  <si>
+    <t>M.BORLA DIOULASSO</t>
   </si>
   <si>
     <t>civ_oncho_ia_202309_1_site_v2</t>
@@ -2510,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2645,13 +2648,13 @@
     </row>
     <row r="5" spans="1:13" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2671,10 +2674,10 @@
         <v>163</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>261</v>
       </c>
       <c r="D6" s="28"/>
       <c r="J6" s="24" t="s">
@@ -2692,7 +2695,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" s="28"/>
       <c r="J7" s="24" t="s">
@@ -2708,7 +2711,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D8" s="28"/>
       <c r="J8" s="24" t="s">
@@ -2724,7 +2727,7 @@
         <v>167</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>17</v>
@@ -2738,7 +2741,7 @@
         <v>169</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>170</v>
@@ -2755,7 +2758,7 @@
         <v>174</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D11" s="28"/>
       <c r="J11" s="24" t="s">
@@ -2770,7 +2773,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="24" t="s">
@@ -2788,7 +2791,7 @@
         <v>177</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D13" s="28"/>
       <c r="J13" s="24" t="s">
@@ -2803,7 +2806,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D14" s="28"/>
       <c r="F14" s="24" t="s">
@@ -2941,9 +2944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3524,10 +3527,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3550,10 +3553,10 @@
         <v>39</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>48</v>
@@ -3696,7 +3699,7 @@
         <v>68</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3734,13 +3737,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="13" t="s">
@@ -3749,28 +3752,28 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="13" t="s">
@@ -3779,13 +3782,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="13" t="s">
@@ -3794,13 +3797,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="13" t="s">
@@ -3809,13 +3812,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D74" s="24"/>
       <c r="E74" s="13" t="s">
@@ -3824,13 +3827,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D75" s="24"/>
       <c r="E75" s="13" t="s">
@@ -3839,13 +3842,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="13" t="s">
@@ -3854,13 +3857,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="13" t="s">
@@ -3869,13 +3872,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="13" t="s">
@@ -3884,13 +3887,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="13" t="s">
@@ -3899,13 +3902,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="13" t="s">
@@ -3914,13 +3917,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="13" t="s">
@@ -3929,13 +3932,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="13" t="s">
@@ -4008,7 +4011,7 @@
         <v>40</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>102</v>
@@ -4126,7 +4129,7 @@
         <v>117</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4140,7 +4143,7 @@
         <v>114</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4154,7 +4157,7 @@
         <v>115</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4168,7 +4171,7 @@
         <v>116</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4309,10 +4312,10 @@
         <v>134</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4320,10 +4323,10 @@
         <v>134</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4331,10 +4334,10 @@
         <v>134</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4342,10 +4345,10 @@
         <v>134</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4353,10 +4356,10 @@
         <v>134</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4364,10 +4367,10 @@
         <v>134</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4375,10 +4378,10 @@
         <v>134</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4386,10 +4389,10 @@
         <v>134</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4397,10 +4400,10 @@
         <v>134</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4408,10 +4411,10 @@
         <v>134</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4419,10 +4422,10 @@
         <v>134</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4430,10 +4433,10 @@
         <v>134</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4441,10 +4444,10 @@
         <v>134</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4452,10 +4455,10 @@
         <v>134</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4463,10 +4466,10 @@
         <v>134</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4474,10 +4477,10 @@
         <v>134</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4485,10 +4488,10 @@
         <v>134</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4496,10 +4499,10 @@
         <v>134</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4507,10 +4510,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4518,10 +4521,10 @@
         <v>134</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -4566,10 +4569,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>88</v>
@@ -4610,28 +4613,28 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M1" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4642,7 +4645,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -4654,10 +4657,10 @@
         <v>60</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4677,13 +4680,13 @@
         <v>95</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4706,10 +4709,10 @@
         <v>118</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4732,10 +4735,10 @@
         <v>61</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4758,10 +4761,10 @@
         <v>62</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4784,10 +4787,10 @@
         <v>63</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4810,10 +4813,10 @@
         <v>64</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4836,15 +4839,15 @@
         <v>124</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -4862,10 +4865,10 @@
         <v>66</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4888,15 +4891,15 @@
         <v>67</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -4911,10 +4914,10 @@
         <v>109</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4935,10 +4938,10 @@
         <v>68</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4950,7 +4953,7 @@
         <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -4959,16 +4962,16 @@
         <v>104</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M14" s="56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15"/>
       <c r="F15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
@@ -4977,34 +4980,34 @@
         <v>128</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M15" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16"/>
       <c r="F16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G16" t="s">
         <v>115</v>
       </c>
       <c r="M16" s="56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17"/>
       <c r="F17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G17" t="s">
         <v>116</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5016,7 +5019,7 @@
         <v>120</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5028,7 +5031,7 @@
         <v>123</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5040,7 +5043,7 @@
         <v>126</v>
       </c>
       <c r="M20" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5052,7 +5055,7 @@
         <v>127</v>
       </c>
       <c r="M21" s="56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5454,19 +5457,19 @@
   <sheetData>
     <row r="1" spans="1:29" ht="31.5">
       <c r="A1" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>90</v>
@@ -5487,7 +5490,7 @@
         <v>135</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R1" s="69"/>
       <c r="S1" s="69"/>
@@ -5510,22 +5513,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="35">
         <v>100</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>52</v>
@@ -5559,19 +5562,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J3" s="66" t="s">
         <v>99</v>
@@ -5605,19 +5608,19 @@
         <v>60</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J4" s="67" t="s">
         <v>96</v>
@@ -5651,19 +5654,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>96</v>
@@ -5697,19 +5700,19 @@
         <v>60</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>99</v>
@@ -5740,22 +5743,22 @@
         <v>48</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>101</v>
@@ -5786,13 +5789,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -5826,13 +5829,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -5866,13 +5869,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -5906,13 +5909,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -5946,13 +5949,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -5986,13 +5989,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -6026,13 +6029,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -6066,13 +6069,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -6106,13 +6109,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -6146,13 +6149,13 @@
         <v>48</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -6186,13 +6189,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -6226,13 +6229,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -6266,13 +6269,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -6306,13 +6309,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6346,13 +6349,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -6386,13 +6389,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -6426,13 +6429,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -6466,13 +6469,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -6506,13 +6509,13 @@
         <v>48</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -6549,10 +6552,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -6566,10 +6569,10 @@
         <v>118</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -6583,10 +6586,10 @@
         <v>118</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -6600,10 +6603,10 @@
         <v>118</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -6617,10 +6620,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -6634,10 +6637,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -6651,10 +6654,10 @@
         <v>61</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -6668,10 +6671,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -6685,10 +6688,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -6702,10 +6705,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -6719,10 +6722,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -6736,10 +6739,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -6753,10 +6756,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -6770,10 +6773,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -6787,10 +6790,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -6804,10 +6807,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -6821,10 +6824,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -6838,10 +6841,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -6855,10 +6858,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -6872,10 +6875,10 @@
         <v>62</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -6889,10 +6892,10 @@
         <v>63</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -6906,10 +6909,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -6923,10 +6926,10 @@
         <v>63</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -6940,10 +6943,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -6957,10 +6960,10 @@
         <v>63</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -6974,10 +6977,10 @@
         <v>63</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -6991,10 +6994,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -7008,10 +7011,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -7025,10 +7028,10 @@
         <v>63</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -7042,10 +7045,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -7059,10 +7062,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -7076,10 +7079,10 @@
         <v>63</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -7093,10 +7096,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -7110,10 +7113,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -7127,10 +7130,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -7144,10 +7147,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -7161,10 +7164,10 @@
         <v>64</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -7178,10 +7181,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -7195,10 +7198,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -7212,10 +7215,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -7229,10 +7232,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -7246,10 +7249,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -7263,10 +7266,10 @@
         <v>124</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -7280,10 +7283,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -7297,10 +7300,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -7314,10 +7317,10 @@
         <v>124</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -7331,10 +7334,10 @@
         <v>124</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -7348,10 +7351,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -7365,10 +7368,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -7382,10 +7385,10 @@
         <v>124</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -7399,10 +7402,10 @@
         <v>66</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -7416,10 +7419,10 @@
         <v>66</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -7433,10 +7436,10 @@
         <v>66</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -7450,10 +7453,10 @@
         <v>66</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -7467,10 +7470,10 @@
         <v>66</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -7484,10 +7487,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -7501,10 +7504,10 @@
         <v>66</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -7518,10 +7521,10 @@
         <v>66</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -7535,10 +7538,10 @@
         <v>66</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -7552,10 +7555,10 @@
         <v>66</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -7569,10 +7572,10 @@
         <v>66</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -7586,10 +7589,10 @@
         <v>66</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -7603,10 +7606,10 @@
         <v>66</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -7620,10 +7623,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -7637,10 +7640,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -7654,10 +7657,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -7671,10 +7674,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -7688,10 +7691,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -7705,10 +7708,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -7722,10 +7725,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -7739,10 +7742,10 @@
         <v>109</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -7756,10 +7759,10 @@
         <v>109</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -7773,10 +7776,10 @@
         <v>109</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D99" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -7790,10 +7793,10 @@
         <v>109</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -7807,10 +7810,10 @@
         <v>109</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -7824,10 +7827,10 @@
         <v>109</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -7841,10 +7844,10 @@
         <v>109</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -7858,10 +7861,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -7875,10 +7878,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -7892,10 +7895,10 @@
         <v>109</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -7903,16 +7906,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B107" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -7920,16 +7923,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B108" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -7937,16 +7940,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -7954,16 +7957,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -7971,16 +7974,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -7988,16 +7991,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -8005,16 +8008,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -8022,16 +8025,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -8039,16 +8042,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -8056,16 +8059,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -8079,10 +8082,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -8096,10 +8099,10 @@
         <v>104</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -8113,10 +8116,10 @@
         <v>104</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -8130,10 +8133,10 @@
         <v>104</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -8147,10 +8150,10 @@
         <v>104</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -8164,10 +8167,10 @@
         <v>104</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -8181,10 +8184,10 @@
         <v>104</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -8198,10 +8201,10 @@
         <v>104</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -8215,10 +8218,10 @@
         <v>104</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -8232,10 +8235,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -8249,10 +8252,10 @@
         <v>104</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -8266,10 +8269,10 @@
         <v>104</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -8283,10 +8286,10 @@
         <v>104</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -8300,10 +8303,10 @@
         <v>104</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D130" s="58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -8317,10 +8320,10 @@
         <v>104</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -8334,10 +8337,10 @@
         <v>128</v>
       </c>
       <c r="C132" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -8351,10 +8354,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D133" s="59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -8368,10 +8371,10 @@
         <v>128</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D134" s="59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -8385,10 +8388,10 @@
         <v>128</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D135" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -8402,10 +8405,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D136" s="59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -8448,19 +8451,19 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>90</v>
@@ -8481,7 +8484,7 @@
         <v>135</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R1" s="69" t="s">
         <v>90</v>
@@ -8502,22 +8505,22 @@
         <v>135</v>
       </c>
       <c r="X1" s="69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y1" s="69" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z1" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA1" s="69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AB1" s="69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AC1" s="69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="47.25">
@@ -8528,22 +8531,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2" s="35">
         <v>100</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>52</v>
@@ -8612,19 +8615,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J3" s="66" t="s">
         <v>99</v>
@@ -8693,19 +8696,19 @@
         <v>60</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J4" s="67" t="s">
         <v>96</v>
@@ -8774,19 +8777,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>96</v>
@@ -8855,19 +8858,19 @@
         <v>60</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>99</v>
@@ -8933,22 +8936,22 @@
         <v>48</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>101</v>
@@ -9014,13 +9017,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -9089,13 +9092,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -9164,13 +9167,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -9239,13 +9242,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -9314,13 +9317,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -9389,13 +9392,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -9464,13 +9467,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -9522,7 +9525,7 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA14">
         <v>14</v>
@@ -9539,13 +9542,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -9597,7 +9600,7 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA15">
         <v>14</v>
@@ -9614,13 +9617,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -9672,7 +9675,7 @@
         <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA16">
         <v>14</v>
@@ -9689,13 +9692,13 @@
         <v>48</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -9747,7 +9750,7 @@
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA17">
         <v>14</v>
@@ -9764,13 +9767,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -9839,13 +9842,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -9908,13 +9911,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -9977,13 +9980,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -10052,13 +10055,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -10127,13 +10130,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -10202,13 +10205,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -10257,7 +10260,7 @@
         <v>158</v>
       </c>
       <c r="Y24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s">
         <v>68</v>
@@ -10277,13 +10280,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -10332,7 +10335,7 @@
         <v>159</v>
       </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z25" t="s">
         <v>68</v>
@@ -10352,13 +10355,13 @@
         <v>48</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -10407,7 +10410,7 @@
         <v>160</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z26" t="s">
         <v>68</v>
@@ -10430,10 +10433,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -10447,10 +10450,10 @@
         <v>118</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -10464,10 +10467,10 @@
         <v>118</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -10481,10 +10484,10 @@
         <v>118</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -10498,10 +10501,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -10515,10 +10518,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -10532,10 +10535,10 @@
         <v>61</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -10549,10 +10552,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -10566,10 +10569,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -10583,10 +10586,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -10600,10 +10603,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -10617,10 +10620,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -10634,10 +10637,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -10651,10 +10654,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -10668,10 +10671,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -10685,10 +10688,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -10702,10 +10705,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -10719,10 +10722,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -10736,10 +10739,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -10753,10 +10756,10 @@
         <v>62</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -10770,10 +10773,10 @@
         <v>63</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -10787,10 +10790,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -10804,10 +10807,10 @@
         <v>63</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -10821,10 +10824,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -10838,10 +10841,10 @@
         <v>63</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -10855,10 +10858,10 @@
         <v>63</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -10872,10 +10875,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -10889,10 +10892,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -10906,10 +10909,10 @@
         <v>63</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -10923,10 +10926,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -10940,10 +10943,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -10957,10 +10960,10 @@
         <v>63</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -10974,10 +10977,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -10991,10 +10994,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -11008,10 +11011,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -11025,10 +11028,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -11042,10 +11045,10 @@
         <v>64</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -11059,10 +11062,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -11076,10 +11079,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -11093,10 +11096,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -11110,10 +11113,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -11127,10 +11130,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -11144,10 +11147,10 @@
         <v>124</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -11161,10 +11164,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -11178,10 +11181,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -11195,10 +11198,10 @@
         <v>124</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -11212,10 +11215,10 @@
         <v>124</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -11229,10 +11232,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -11246,10 +11249,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -11263,10 +11266,10 @@
         <v>124</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -11280,10 +11283,10 @@
         <v>66</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -11297,10 +11300,10 @@
         <v>66</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -11314,10 +11317,10 @@
         <v>66</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -11331,10 +11334,10 @@
         <v>66</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -11348,10 +11351,10 @@
         <v>66</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -11365,10 +11368,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -11382,10 +11385,10 @@
         <v>66</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -11399,10 +11402,10 @@
         <v>66</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -11416,10 +11419,10 @@
         <v>66</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -11433,10 +11436,10 @@
         <v>66</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -11450,10 +11453,10 @@
         <v>66</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -11467,10 +11470,10 @@
         <v>66</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -11484,10 +11487,10 @@
         <v>66</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -11501,10 +11504,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -11518,10 +11521,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -11535,10 +11538,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -11552,10 +11555,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -11569,10 +11572,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -11586,10 +11589,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -11603,10 +11606,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -11620,10 +11623,10 @@
         <v>109</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -11637,10 +11640,10 @@
         <v>109</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -11654,10 +11657,10 @@
         <v>109</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D99" s="56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -11671,10 +11674,10 @@
         <v>109</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -11688,10 +11691,10 @@
         <v>109</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -11705,10 +11708,10 @@
         <v>109</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -11722,10 +11725,10 @@
         <v>109</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -11739,10 +11742,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -11756,10 +11759,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -11773,10 +11776,10 @@
         <v>109</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -11784,16 +11787,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B107" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -11801,16 +11804,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B108" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -11818,16 +11821,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -11835,16 +11838,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -11852,16 +11855,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -11869,16 +11872,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -11886,16 +11889,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -11903,16 +11906,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -11920,16 +11923,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -11937,16 +11940,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -11960,10 +11963,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -11977,10 +11980,10 @@
         <v>104</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -11994,10 +11997,10 @@
         <v>104</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -12011,10 +12014,10 @@
         <v>104</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -12028,10 +12031,10 @@
         <v>104</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -12045,10 +12048,10 @@
         <v>104</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -12062,10 +12065,10 @@
         <v>104</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -12079,10 +12082,10 @@
         <v>104</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -12096,10 +12099,10 @@
         <v>104</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -12113,10 +12116,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -12130,10 +12133,10 @@
         <v>104</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -12147,10 +12150,10 @@
         <v>104</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -12164,10 +12167,10 @@
         <v>104</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -12181,10 +12184,10 @@
         <v>104</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D130" s="58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -12198,10 +12201,10 @@
         <v>104</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -12215,10 +12218,10 @@
         <v>128</v>
       </c>
       <c r="C132" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -12232,10 +12235,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D133" s="59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -12249,10 +12252,10 @@
         <v>128</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D134" s="59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -12266,10 +12269,10 @@
         <v>128</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D135" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -12283,10 +12286,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D136" s="59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E136">
         <v>100</v>

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297604F8-A402-4134-8493-76B0DD47CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2FD91-EF2A-48ED-B231-D823D103DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="280">
   <si>
     <t>type</t>
   </si>
@@ -640,12 +640,6 @@
     <t>M.BORLA DIOULASSO</t>
   </si>
   <si>
-    <t>civ_oncho_ia_202309_1_site_v2</t>
-  </si>
-  <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 1. Site V2</t>
-  </si>
-  <si>
     <t>REGIONS</t>
   </si>
   <si>
@@ -832,9 +826,6 @@
     <t>s_village_1ere_ligne</t>
   </si>
   <si>
-    <t>6. Entrer le nom du site d'enquête</t>
-  </si>
-  <si>
     <t>7. Sélectionner un code du site</t>
   </si>
   <si>
@@ -854,6 +845,39 @@
   </si>
   <si>
     <t>Date TDM</t>
+  </si>
+  <si>
+    <t>6.a. Entrer le nom du site d'enquête</t>
+  </si>
+  <si>
+    <t>s_site_dist_village</t>
+  </si>
+  <si>
+    <t>6.b. À quelle distance du gîte se situe le village à enquêter</t>
+  </si>
+  <si>
+    <t>0-5 km</t>
+  </si>
+  <si>
+    <t>5-10 km</t>
+  </si>
+  <si>
+    <t>10-15km</t>
+  </si>
+  <si>
+    <t>Plus de 15 km</t>
+  </si>
+  <si>
+    <t>distance_site</t>
+  </si>
+  <si>
+    <t>select_one distance_site</t>
+  </si>
+  <si>
+    <t>(Sept 2023) ONCHO Pre Stop - 1. Site V3</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_1_site_v3</t>
   </si>
 </sst>
 </file>
@@ -1403,23 +1427,368 @@
   <dxfs count="34">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Abadi"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1808,368 +2177,23 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Abadi"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2192,29 +2216,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{43872270-2C5C-490F-BDA5-FB676158F64B}" name="Table16" displayName="Table16" ref="A1:D136" totalsRowShown="0" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{43872270-2C5C-490F-BDA5-FB676158F64B}" name="Table16" displayName="Table16" ref="A1:D136" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:D136" xr:uid="{43872270-2C5C-490F-BDA5-FB676158F64B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7EEEF7AC-DD54-4E4B-A48A-56D94CC09D0A}" name="REGIONS" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{E6C9A403-F12B-4FF6-98E1-FC42E0F44D36}" name="DISTRICTS" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F991AF66-B245-4387-A3AC-BB1DCE49FCE3}" name="CODE DS" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{4F82F3F1-B4F1-43D6-8E99-9119E5A23D85}" name="CODE VILLAGE" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{7EEEF7AC-DD54-4E4B-A48A-56D94CC09D0A}" name="REGIONS" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{E6C9A403-F12B-4FF6-98E1-FC42E0F44D36}" name="DISTRICTS" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F991AF66-B245-4387-A3AC-BB1DCE49FCE3}" name="CODE DS" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{4F82F3F1-B4F1-43D6-8E99-9119E5A23D85}" name="CODE VILLAGE" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72EDBFB4-398E-45A9-94C6-E659F1D85FA8}" name="Table27" displayName="Table27" ref="J1:P26" totalsRowShown="0" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{72EDBFB4-398E-45A9-94C6-E659F1D85FA8}" name="Table27" displayName="Table27" ref="J1:P26" totalsRowShown="0" tableBorderDxfId="24">
   <autoFilter ref="J1:P26" xr:uid="{72EDBFB4-398E-45A9-94C6-E659F1D85FA8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{634CF502-2C2A-4E48-A9AF-D3F04874A6CD}" name="BASSIN" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{ADC64A6A-A166-4B85-91B2-9A081D0ED6CC}" name="REGION" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{C66155C1-9328-41B4-8520-BD9F71D8BC5B}" name="DISTRICT" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{38CA714F-B080-48EB-96FD-4CAB25AFF371}" name="AIRE DE SANTE" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{FDA9FA80-3158-4BA8-AEDC-C8643770BC1D}" name="VILLAGE DU GÎTE" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{139077CC-D548-45D6-A4CA-5745AFAF03B3}" name="SiteID" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{4078E0EA-E4C5-4F05-A974-26F66C364465}" name="Sire Remplacement ID" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{634CF502-2C2A-4E48-A9AF-D3F04874A6CD}" name="BASSIN" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{ADC64A6A-A166-4B85-91B2-9A081D0ED6CC}" name="REGION" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{C66155C1-9328-41B4-8520-BD9F71D8BC5B}" name="DISTRICT" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{38CA714F-B080-48EB-96FD-4CAB25AFF371}" name="AIRE DE SANTE" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{FDA9FA80-3158-4BA8-AEDC-C8643770BC1D}" name="VILLAGE DU GÎTE" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{139077CC-D548-45D6-A4CA-5745AFAF03B3}" name="SiteID" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{4078E0EA-E4C5-4F05-A974-26F66C364465}" name="Sire Remplacement ID" dataDxfId="17">
       <calculatedColumnFormula>_xlfn.CONCAT(N2, " (",O2, ")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2223,29 +2247,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{794FCC05-EADB-46A6-BC08-F402A75731B6}" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{794FCC05-EADB-46A6-BC08-F402A75731B6}" name="Table1" displayName="Table1" ref="A1:D136" totalsRowShown="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:D136" xr:uid="{794FCC05-EADB-46A6-BC08-F402A75731B6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AECC413D-28C9-4A01-A001-341607BE9EB9}" name="REGIONS" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{93431485-995E-43BB-8A6C-D2B278679D03}" name="DISTRICTS" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7D8530DF-E5C7-4824-998B-553F45CD6CE2}" name="CODE DS" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{EA73B0D8-836A-4398-8304-8BDC73F0B644}" name="CODE VILLAGE" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{AECC413D-28C9-4A01-A001-341607BE9EB9}" name="REGIONS" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{93431485-995E-43BB-8A6C-D2B278679D03}" name="DISTRICTS" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7D8530DF-E5C7-4824-998B-553F45CD6CE2}" name="CODE DS" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EA73B0D8-836A-4398-8304-8BDC73F0B644}" name="CODE VILLAGE" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B3D1898-0CCB-4219-A10E-3174F169801B}" name="Table2" displayName="Table2" ref="J1:P26" totalsRowShown="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B3D1898-0CCB-4219-A10E-3174F169801B}" name="Table2" displayName="Table2" ref="J1:P26" totalsRowShown="0" tableBorderDxfId="7">
   <autoFilter ref="J1:P26" xr:uid="{4B3D1898-0CCB-4219-A10E-3174F169801B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5C5B24AA-764D-4DBD-A36C-CC2E503295FF}" name="BASSIN" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{89C0DAA5-AC17-4B8D-AA21-302E64690C77}" name="REGION" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D2619C2D-93B2-43B2-AE94-04500BAC6AF9}" name="DISTRICT" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E058557C-5C91-41E1-9A61-51BCBC2B29B3}" name="AIRE DE SANTE" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{89069E3A-63DC-486A-B193-44890195FFEE}" name="VILLAGE DU GÎTE" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1755D74B-4B89-4643-A67E-0E6CB44EAADA}" name="SiteID" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5C2217E7-5E0E-43F3-8F2F-AF84162BB3FD}" name="Sire Remplacement ID" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5C5B24AA-764D-4DBD-A36C-CC2E503295FF}" name="BASSIN" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{89C0DAA5-AC17-4B8D-AA21-302E64690C77}" name="REGION" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D2619C2D-93B2-43B2-AE94-04500BAC6AF9}" name="DISTRICT" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E058557C-5C91-41E1-9A61-51BCBC2B29B3}" name="AIRE DE SANTE" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{89069E3A-63DC-486A-B193-44890195FFEE}" name="VILLAGE DU GÎTE" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{1755D74B-4B89-4643-A67E-0E6CB44EAADA}" name="SiteID" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5C2217E7-5E0E-43F3-8F2F-AF84162BB3FD}" name="Sire Remplacement ID" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT(N2, " (",O2, ")")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2511,13 +2535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2648,13 +2672,13 @@
     </row>
     <row r="5" spans="1:13" s="24" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2674,20 +2698,17 @@
         <v>163</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D6" s="28"/>
-      <c r="J6" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="L6" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="24" customFormat="1">
+    <row r="7" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A7" s="24" t="s">
         <v>164</v>
       </c>
@@ -2695,7 +2716,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D7" s="28"/>
       <c r="J7" s="24" t="s">
@@ -2703,15 +2724,15 @@
       </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13" s="24" customFormat="1">
+    <row r="8" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A8" s="24" t="s">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D8" s="28"/>
       <c r="J8" s="24" t="s">
@@ -2719,32 +2740,31 @@
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>266</v>
-      </c>
+    <row r="9" spans="1:13" s="24" customFormat="1">
+      <c r="A9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="J9" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="24" customFormat="1" ht="31.5">
-      <c r="A10" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>170</v>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="J10" s="24" t="s">
         <v>17</v>
@@ -2755,144 +2775,144 @@
         <v>168</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>264</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>170</v>
+      </c>
       <c r="J11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="24" customFormat="1">
+    <row r="12" spans="1:13" s="24" customFormat="1" ht="31.5">
       <c r="A12" s="24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>196</v>
+      <c r="J12" s="24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="24" customFormat="1">
       <c r="A13" s="24" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="J13" s="24" t="s">
-        <v>17</v>
+      <c r="E13" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="F14" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>193</v>
-      </c>
       <c r="J14" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="24" customFormat="1">
       <c r="A15" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="F15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="24" customFormat="1">
+      <c r="A16" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:13" s="24" customFormat="1">
-      <c r="A16" s="25" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" s="24" customFormat="1">
+      <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="13" t="s">
+      <c r="K17" s="26"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J18" s="24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="24" customFormat="1">
-      <c r="A18" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" s="24" customFormat="1">
       <c r="A19" s="25" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="27"/>
+        <v>31</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" s="27"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
@@ -2904,10 +2924,10 @@
     </row>
     <row r="20" spans="1:12" s="24" customFormat="1">
       <c r="A20" s="25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2920,9 +2940,21 @@
       <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" s="24" customFormat="1">
-      <c r="B21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12" s="24" customFormat="1">
       <c r="B22" s="28"/>
@@ -2930,9 +2962,14 @@
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:12" s="24" customFormat="1">
-      <c r="B23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="28"/>
+      <c r="D23" s="28"/>
       <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" s="24" customFormat="1">
+      <c r="B24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2942,11 +2979,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3434,272 +3471,176 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
     <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>48</v>
+        <v>276</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>50</v>
+        <v>276</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B54" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C56" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="13" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B57" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B58" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13" t="s">
+    <row r="59" spans="1:3">
+      <c r="A59" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B59" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="13" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B60" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="13" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="24" t="s">
+      <c r="B61" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="13" t="s">
+    <row r="62" spans="1:3">
+      <c r="A62" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="13" t="s">
+      <c r="B62" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B63" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C63" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>56</v>
-      </c>
+    <row r="64" spans="1:3">
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3707,13 +3648,13 @@
         <v>39</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3721,401 +3662,401 @@
         <v>39</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
+      <c r="A68" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="24"/>
-      <c r="E70" s="13" t="s">
-        <v>224</v>
+        <v>64</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="13" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="24"/>
-      <c r="E73" s="13" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="13" t="s">
-        <v>63</v>
+        <v>109</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>247</v>
+        <v>68</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="13" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="13" t="s">
-        <v>124</v>
+        <v>60</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="13" t="s">
-        <v>66</v>
+        <v>104</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="13" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>250</v>
+        <v>128</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="13" t="s">
-        <v>67</v>
+        <v>128</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>251</v>
-      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
       <c r="D79" s="24"/>
-      <c r="E79" s="13" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="13" t="s">
-        <v>104</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D82" s="24"/>
       <c r="E82" s="13" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="B83" s="24"/>
-      <c r="C83" s="24"/>
+      <c r="A83" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>242</v>
+      </c>
       <c r="D83" s="24"/>
+      <c r="E83" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>94</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="24"/>
       <c r="E84" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>95</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D85" s="24"/>
       <c r="E85" s="13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="24"/>
       <c r="E86" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>97</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="24"/>
       <c r="E87" s="13" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>102</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="24"/>
       <c r="E88" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>100</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="24"/>
       <c r="E89" s="13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>103</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="24"/>
       <c r="E90" s="13" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>106</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="24"/>
       <c r="E91" s="13" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>107</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D92" s="24"/>
       <c r="E92" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>108</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="24"/>
       <c r="E93" s="13" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>109</v>
-      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4123,13 +4064,13 @@
         <v>40</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4137,13 +4078,13 @@
         <v>40</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4151,13 +4092,13 @@
         <v>40</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4165,13 +4106,13 @@
         <v>40</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>224</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4179,13 +4120,13 @@
         <v>40</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4193,13 +4134,13 @@
         <v>40</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4207,13 +4148,13 @@
         <v>40</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4221,13 +4162,13 @@
         <v>40</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4235,13 +4176,13 @@
         <v>40</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4249,13 +4190,13 @@
         <v>40</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4263,13 +4204,13 @@
         <v>40</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4277,13 +4218,13 @@
         <v>40</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4291,229 +4232,262 @@
         <v>40</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
+      <c r="A109" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>208</v>
+        <v>116</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>212</v>
+        <v>120</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>123</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>126</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>131</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="13" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>132</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4521,15 +4495,136 @@
         <v>134</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B53">
-    <sortCondition ref="B3:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B63">
+    <sortCondition ref="B3:B63"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4541,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4569,10 +4664,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>200</v>
+        <v>279</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>88</v>
@@ -4592,7 +4687,7 @@
   <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M21"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4613,28 +4708,28 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G1" s="69" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="M1" s="63" t="s">
         <v>203</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="M1" s="63" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4645,7 +4740,7 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>62</v>
@@ -4657,10 +4752,10 @@
         <v>60</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4680,13 +4775,13 @@
         <v>95</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M3" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4709,10 +4804,10 @@
         <v>118</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4735,10 +4830,10 @@
         <v>61</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M5" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4761,10 +4856,10 @@
         <v>62</v>
       </c>
       <c r="K6" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M6" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4787,10 +4882,10 @@
         <v>63</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4813,10 +4908,10 @@
         <v>64</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M8" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4839,15 +4934,15 @@
         <v>124</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M9" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -4865,10 +4960,10 @@
         <v>66</v>
       </c>
       <c r="K10" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M10" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4891,15 +4986,15 @@
         <v>67</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M11" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -4914,10 +5009,10 @@
         <v>109</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M12" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4938,10 +5033,10 @@
         <v>68</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M13" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4953,7 +5048,7 @@
         <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G14" t="s">
         <v>117</v>
@@ -4962,16 +5057,16 @@
         <v>104</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M14" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15"/>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G15" t="s">
         <v>114</v>
@@ -4980,34 +5075,34 @@
         <v>128</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M15" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16"/>
       <c r="F16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G16" t="s">
         <v>115</v>
       </c>
       <c r="M16" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17"/>
       <c r="F17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
         <v>116</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5019,7 +5114,7 @@
         <v>120</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5031,7 +5126,7 @@
         <v>123</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5043,7 +5138,7 @@
         <v>126</v>
       </c>
       <c r="M20" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5055,7 +5150,7 @@
         <v>127</v>
       </c>
       <c r="M21" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5440,7 +5535,7 @@
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="M1:M21 M137:M1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5457,19 +5552,19 @@
   <sheetData>
     <row r="1" spans="1:29" ht="31.5">
       <c r="A1" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="E1" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>206</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>90</v>
@@ -5490,7 +5585,7 @@
         <v>135</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R1" s="69"/>
       <c r="S1" s="69"/>
@@ -5513,22 +5608,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="35">
+        <v>100</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="G2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="35">
-        <v>100</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>52</v>
@@ -5562,19 +5657,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>212</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>214</v>
       </c>
       <c r="J3" s="66" t="s">
         <v>99</v>
@@ -5608,19 +5703,19 @@
         <v>60</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="J4" s="67" t="s">
         <v>96</v>
@@ -5654,19 +5749,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>220</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>96</v>
@@ -5700,19 +5795,19 @@
         <v>60</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>223</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>99</v>
@@ -5743,22 +5838,22 @@
         <v>48</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="G7" s="39" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>227</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>101</v>
@@ -5789,13 +5884,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -5829,13 +5924,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -5869,13 +5964,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -5909,13 +6004,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -5949,13 +6044,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -5989,13 +6084,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -6029,13 +6124,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -6069,13 +6164,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -6109,13 +6204,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -6149,13 +6244,13 @@
         <v>48</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -6189,13 +6284,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -6229,13 +6324,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -6269,13 +6364,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -6309,13 +6404,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6349,13 +6444,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -6389,13 +6484,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -6429,13 +6524,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -6469,13 +6564,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -6509,13 +6604,13 @@
         <v>48</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -6552,10 +6647,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -6569,10 +6664,10 @@
         <v>118</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -6586,10 +6681,10 @@
         <v>118</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -6603,10 +6698,10 @@
         <v>118</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -6620,10 +6715,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -6637,10 +6732,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -6654,10 +6749,10 @@
         <v>61</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -6671,10 +6766,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -6688,10 +6783,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -6705,10 +6800,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -6722,10 +6817,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -6739,10 +6834,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -6756,10 +6851,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -6773,10 +6868,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -6790,10 +6885,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -6807,10 +6902,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -6824,10 +6919,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -6841,10 +6936,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -6858,10 +6953,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -6875,10 +6970,10 @@
         <v>62</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -6892,10 +6987,10 @@
         <v>63</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -6909,10 +7004,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -6926,10 +7021,10 @@
         <v>63</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -6943,10 +7038,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -6960,10 +7055,10 @@
         <v>63</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -6977,10 +7072,10 @@
         <v>63</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -6994,10 +7089,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -7011,10 +7106,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -7028,10 +7123,10 @@
         <v>63</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -7045,10 +7140,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -7062,10 +7157,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -7079,10 +7174,10 @@
         <v>63</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -7096,10 +7191,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -7113,10 +7208,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -7130,10 +7225,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -7147,10 +7242,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -7164,10 +7259,10 @@
         <v>64</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -7181,10 +7276,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -7198,10 +7293,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -7215,10 +7310,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -7232,10 +7327,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -7249,10 +7344,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -7266,10 +7361,10 @@
         <v>124</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -7283,10 +7378,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -7300,10 +7395,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -7317,10 +7412,10 @@
         <v>124</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -7334,10 +7429,10 @@
         <v>124</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -7351,10 +7446,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -7368,10 +7463,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -7385,10 +7480,10 @@
         <v>124</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -7402,10 +7497,10 @@
         <v>66</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -7419,10 +7514,10 @@
         <v>66</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -7436,10 +7531,10 @@
         <v>66</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -7453,10 +7548,10 @@
         <v>66</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -7470,10 +7565,10 @@
         <v>66</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -7487,10 +7582,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -7504,10 +7599,10 @@
         <v>66</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -7521,10 +7616,10 @@
         <v>66</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -7538,10 +7633,10 @@
         <v>66</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -7555,10 +7650,10 @@
         <v>66</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -7572,10 +7667,10 @@
         <v>66</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -7589,10 +7684,10 @@
         <v>66</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -7606,10 +7701,10 @@
         <v>66</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -7623,10 +7718,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -7640,10 +7735,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -7657,10 +7752,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -7674,10 +7769,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -7691,10 +7786,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -7708,10 +7803,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -7725,10 +7820,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -7742,10 +7837,10 @@
         <v>109</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -7759,10 +7854,10 @@
         <v>109</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -7776,10 +7871,10 @@
         <v>109</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D99" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -7793,10 +7888,10 @@
         <v>109</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -7810,10 +7905,10 @@
         <v>109</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -7827,10 +7922,10 @@
         <v>109</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -7844,10 +7939,10 @@
         <v>109</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -7861,10 +7956,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -7878,10 +7973,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -7895,10 +7990,10 @@
         <v>109</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -7906,16 +8001,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B107" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -7923,16 +8018,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B108" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -7940,16 +8035,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -7957,16 +8052,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -7974,16 +8069,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -7991,16 +8086,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -8008,16 +8103,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -8025,16 +8120,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -8042,16 +8137,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -8059,16 +8154,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -8082,10 +8177,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -8099,10 +8194,10 @@
         <v>104</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -8116,10 +8211,10 @@
         <v>104</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -8133,10 +8228,10 @@
         <v>104</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -8150,10 +8245,10 @@
         <v>104</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -8167,10 +8262,10 @@
         <v>104</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -8184,10 +8279,10 @@
         <v>104</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -8201,10 +8296,10 @@
         <v>104</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -8218,10 +8313,10 @@
         <v>104</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -8235,10 +8330,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -8252,10 +8347,10 @@
         <v>104</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -8269,10 +8364,10 @@
         <v>104</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -8286,10 +8381,10 @@
         <v>104</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -8303,10 +8398,10 @@
         <v>104</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D130" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -8320,10 +8415,10 @@
         <v>104</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -8337,10 +8432,10 @@
         <v>128</v>
       </c>
       <c r="C132" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -8354,10 +8449,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -8371,10 +8466,10 @@
         <v>128</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D134" s="59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -8388,10 +8483,10 @@
         <v>128</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D135" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -8405,10 +8500,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D136" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -8416,7 +8511,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N1:N26">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
@@ -8431,7 +8526,7 @@
   <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8451,19 +8546,19 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="E1" s="34" t="s">
         <v>204</v>
-      </c>
-      <c r="D1" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>206</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>90</v>
@@ -8484,7 +8579,7 @@
         <v>135</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R1" s="69" t="s">
         <v>90</v>
@@ -8505,22 +8600,22 @@
         <v>135</v>
       </c>
       <c r="X1" s="69" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Y1" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA1" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="69" t="s">
+      <c r="AB1" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="AA1" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB1" s="69" t="s">
-        <v>205</v>
-      </c>
       <c r="AC1" s="69" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="47.25">
@@ -8531,22 +8626,22 @@
         <v>60</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="35">
+        <v>100</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="G2" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="35">
-        <v>100</v>
-      </c>
-      <c r="F2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>211</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>52</v>
@@ -8615,19 +8710,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="38" t="s">
         <v>212</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>214</v>
       </c>
       <c r="J3" s="66" t="s">
         <v>99</v>
@@ -8696,19 +8791,19 @@
         <v>60</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D4" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="J4" s="67" t="s">
         <v>96</v>
@@ -8777,19 +8872,19 @@
         <v>60</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>220</v>
       </c>
       <c r="J5" s="67" t="s">
         <v>96</v>
@@ -8858,19 +8953,19 @@
         <v>60</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="38" t="s">
         <v>221</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>223</v>
       </c>
       <c r="J6" s="65" t="s">
         <v>99</v>
@@ -8936,22 +9031,22 @@
         <v>48</v>
       </c>
       <c r="B7" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="G7" s="39" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>227</v>
       </c>
       <c r="J7" s="67" t="s">
         <v>101</v>
@@ -9017,13 +9112,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -9092,13 +9187,13 @@
         <v>48</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -9167,13 +9262,13 @@
         <v>48</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -9242,13 +9337,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -9317,13 +9412,13 @@
         <v>48</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -9392,13 +9487,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -9467,13 +9562,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -9525,7 +9620,7 @@
         <v>48</v>
       </c>
       <c r="Z14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA14">
         <v>14</v>
@@ -9542,13 +9637,13 @@
         <v>48</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -9600,7 +9695,7 @@
         <v>48</v>
       </c>
       <c r="Z15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA15">
         <v>14</v>
@@ -9617,13 +9712,13 @@
         <v>48</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -9675,7 +9770,7 @@
         <v>48</v>
       </c>
       <c r="Z16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA16">
         <v>14</v>
@@ -9692,13 +9787,13 @@
         <v>48</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -9750,7 +9845,7 @@
         <v>48</v>
       </c>
       <c r="Z17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AA17">
         <v>14</v>
@@ -9767,13 +9862,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -9842,13 +9937,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -9911,13 +10006,13 @@
         <v>48</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -9980,13 +10075,13 @@
         <v>48</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -10055,13 +10150,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -10130,13 +10225,13 @@
         <v>48</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -10205,13 +10300,13 @@
         <v>48</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -10260,7 +10355,7 @@
         <v>158</v>
       </c>
       <c r="Y24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z24" t="s">
         <v>68</v>
@@ -10280,13 +10375,13 @@
         <v>48</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -10335,7 +10430,7 @@
         <v>159</v>
       </c>
       <c r="Y25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s">
         <v>68</v>
@@ -10355,13 +10450,13 @@
         <v>48</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -10410,7 +10505,7 @@
         <v>160</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s">
         <v>68</v>
@@ -10433,10 +10528,10 @@
         <v>118</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -10450,10 +10545,10 @@
         <v>118</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -10467,10 +10562,10 @@
         <v>118</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -10484,10 +10579,10 @@
         <v>118</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -10501,10 +10596,10 @@
         <v>118</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -10518,10 +10613,10 @@
         <v>61</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -10535,10 +10630,10 @@
         <v>61</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -10552,10 +10647,10 @@
         <v>61</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -10569,10 +10664,10 @@
         <v>61</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -10586,10 +10681,10 @@
         <v>61</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -10603,10 +10698,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D37" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -10620,10 +10715,10 @@
         <v>61</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D38" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -10637,10 +10732,10 @@
         <v>61</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -10654,10 +10749,10 @@
         <v>61</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -10671,10 +10766,10 @@
         <v>61</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -10688,10 +10783,10 @@
         <v>62</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -10705,10 +10800,10 @@
         <v>62</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -10722,10 +10817,10 @@
         <v>62</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -10739,10 +10834,10 @@
         <v>62</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D45" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -10756,10 +10851,10 @@
         <v>62</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D46" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -10773,10 +10868,10 @@
         <v>63</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -10790,10 +10885,10 @@
         <v>63</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -10807,10 +10902,10 @@
         <v>63</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D49" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -10824,10 +10919,10 @@
         <v>63</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D50" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -10841,10 +10936,10 @@
         <v>63</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D51" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -10858,10 +10953,10 @@
         <v>63</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D52" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -10875,10 +10970,10 @@
         <v>63</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D53" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -10892,10 +10987,10 @@
         <v>63</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D54" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -10909,10 +11004,10 @@
         <v>63</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D55" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>100</v>
@@ -10926,10 +11021,10 @@
         <v>63</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D56" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -10943,10 +11038,10 @@
         <v>63</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D57" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -10960,10 +11055,10 @@
         <v>63</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D58" s="57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -10977,10 +11072,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D59" s="57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -10994,10 +11089,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D60" s="57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -11011,10 +11106,10 @@
         <v>63</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -11028,10 +11123,10 @@
         <v>64</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D62" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -11045,10 +11140,10 @@
         <v>64</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -11062,10 +11157,10 @@
         <v>64</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -11079,10 +11174,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -11096,10 +11191,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -11113,10 +11208,10 @@
         <v>124</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -11130,10 +11225,10 @@
         <v>124</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D68" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -11147,10 +11242,10 @@
         <v>124</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D69" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -11164,10 +11259,10 @@
         <v>124</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D70" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -11181,10 +11276,10 @@
         <v>124</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D71" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -11198,10 +11293,10 @@
         <v>124</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D72" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -11215,10 +11310,10 @@
         <v>124</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D73" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -11232,10 +11327,10 @@
         <v>124</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -11249,10 +11344,10 @@
         <v>124</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D75" s="57" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -11266,10 +11361,10 @@
         <v>124</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D76" s="57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -11283,10 +11378,10 @@
         <v>66</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D77" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -11300,10 +11395,10 @@
         <v>66</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -11317,10 +11412,10 @@
         <v>66</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -11334,10 +11429,10 @@
         <v>66</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -11351,10 +11446,10 @@
         <v>66</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -11368,10 +11463,10 @@
         <v>66</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -11385,10 +11480,10 @@
         <v>66</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -11402,10 +11497,10 @@
         <v>66</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -11419,10 +11514,10 @@
         <v>66</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -11436,10 +11531,10 @@
         <v>66</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -11453,10 +11548,10 @@
         <v>66</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -11470,10 +11565,10 @@
         <v>66</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -11487,10 +11582,10 @@
         <v>66</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -11504,10 +11599,10 @@
         <v>67</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -11521,10 +11616,10 @@
         <v>67</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D91" s="57" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -11538,10 +11633,10 @@
         <v>67</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -11555,10 +11650,10 @@
         <v>67</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -11572,10 +11667,10 @@
         <v>67</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D94" s="57" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -11589,10 +11684,10 @@
         <v>67</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D95" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -11606,10 +11701,10 @@
         <v>67</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D96" s="57" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -11623,10 +11718,10 @@
         <v>109</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -11640,10 +11735,10 @@
         <v>109</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -11657,10 +11752,10 @@
         <v>109</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D99" s="56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -11674,10 +11769,10 @@
         <v>109</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -11691,10 +11786,10 @@
         <v>109</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -11708,10 +11803,10 @@
         <v>109</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -11725,10 +11820,10 @@
         <v>109</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -11742,10 +11837,10 @@
         <v>109</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -11759,10 +11854,10 @@
         <v>109</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -11776,10 +11871,10 @@
         <v>109</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -11787,16 +11882,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B107" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D107" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -11804,16 +11899,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B108" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D108" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -11821,16 +11916,16 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D109" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E109">
         <v>100</v>
@@ -11838,16 +11933,16 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E110">
         <v>100</v>
@@ -11855,16 +11950,16 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -11872,16 +11967,16 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -11889,16 +11984,16 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D113" s="55" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -11906,16 +12001,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D114" s="55" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -11923,16 +12018,16 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B115" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D115" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E115">
         <v>100</v>
@@ -11940,16 +12035,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="53" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E116">
         <v>100</v>
@@ -11963,10 +12058,10 @@
         <v>104</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D117" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -11980,10 +12075,10 @@
         <v>104</v>
       </c>
       <c r="C118" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D118" s="58" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -11997,10 +12092,10 @@
         <v>104</v>
       </c>
       <c r="C119" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E119">
         <v>100</v>
@@ -12014,10 +12109,10 @@
         <v>104</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -12031,10 +12126,10 @@
         <v>104</v>
       </c>
       <c r="C121" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E121">
         <v>100</v>
@@ -12048,10 +12143,10 @@
         <v>104</v>
       </c>
       <c r="C122" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D122" s="58" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -12065,10 +12160,10 @@
         <v>104</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D123" s="58" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -12082,10 +12177,10 @@
         <v>104</v>
       </c>
       <c r="C124" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D124" s="58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -12099,10 +12194,10 @@
         <v>104</v>
       </c>
       <c r="C125" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D125" s="58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -12116,10 +12211,10 @@
         <v>104</v>
       </c>
       <c r="C126" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D126" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -12133,10 +12228,10 @@
         <v>104</v>
       </c>
       <c r="C127" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D127" s="58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -12150,10 +12245,10 @@
         <v>104</v>
       </c>
       <c r="C128" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E128">
         <v>100</v>
@@ -12167,10 +12262,10 @@
         <v>104</v>
       </c>
       <c r="C129" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -12184,10 +12279,10 @@
         <v>104</v>
       </c>
       <c r="C130" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D130" s="58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -12201,10 +12296,10 @@
         <v>104</v>
       </c>
       <c r="C131" s="50" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D131" s="58" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -12218,10 +12313,10 @@
         <v>128</v>
       </c>
       <c r="C132" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D132" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -12235,10 +12330,10 @@
         <v>128</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E133">
         <v>100</v>
@@ -12252,10 +12347,10 @@
         <v>128</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D134" s="59" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -12269,10 +12364,10 @@
         <v>128</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D135" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -12286,10 +12381,10 @@
         <v>128</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D136" s="59" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -12298,10 +12393,10 @@
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="N1:N26">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
+++ b/ONCHO/Impact Assessments/Cote d'Ivoire/civ_oncho_ia_202309_1_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Cote d'Ivoire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF2FD91-EF2A-48ED-B231-D823D103DE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C281322-23DB-4C3A-8A4C-777378998BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -874,10 +874,10 @@
     <t>select_one distance_site</t>
   </si>
   <si>
-    <t>(Sept 2023) ONCHO Pre Stop - 1. Site V3</t>
-  </si>
-  <si>
-    <t>civ_oncho_ia_202309_1_site_v3</t>
+    <t>(Sept 2023) ONCHO Pre Stop - 1. Site V4</t>
+  </si>
+  <si>
+    <t>civ_oncho_ia_202309_1_site_v4</t>
   </si>
 </sst>
 </file>
@@ -2982,8 +2982,8 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4392,7 +4392,7 @@
         <v>132</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8526,7 +8526,7 @@
   <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -10468,7 +10468,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>71</v>
